--- a/Componentes Erasmus.xlsx
+++ b/Componentes Erasmus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joser\Documents\PUCP SSD\PUCP\Investigacion\Erasmus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3667F0A4-DBFC-4336-8E42-010821393314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120245DB-8EEF-4553-864A-98B0BAE2B0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{062219D7-D1B6-4961-AB6F-BDB459F50AA3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
   <si>
     <t>Lista Componentes</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>5 dias habiles</t>
+  </si>
+  <si>
+    <t>Pilas AA Recargables</t>
+  </si>
+  <si>
+    <t>Acuador Lineal L16-S</t>
+  </si>
+  <si>
+    <t>https://www.actuonix.com/l16-140-63-12-s</t>
   </si>
 </sst>
 </file>
@@ -412,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -425,8 +434,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -1577,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F3B80A-F269-49A3-BDB8-B3A8C00E52FA}">
-  <dimension ref="B3:G65"/>
+  <dimension ref="B3:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1695,44 +1702,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="12" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15">
         <f>4+2</f>
         <v>6</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="1">
         <v>12</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="1">
         <f t="shared" ref="F15:F28" si="0">E15*D15</f>
         <v>72</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="12" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="1">
         <v>24</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="3:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>38</v>
       </c>
@@ -1750,7 +1757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>55</v>
       </c>
@@ -1768,53 +1775,53 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="3:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="12" t="s">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
         <v>178</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="3:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="12" t="s">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="1">
         <v>46</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="3:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="12" t="s">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="1">
         <v>13</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -1871,6 +1878,14 @@
       </c>
       <c r="G24" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
@@ -1974,7 +1989,7 @@
       <c r="E34" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="12">
         <f>F32+F33+130</f>
         <v>628.30999999999995</v>
       </c>
@@ -1983,186 +1998,204 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12" t="s">
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <f>70*3.8</f>
+        <v>266</v>
+      </c>
+      <c r="F36" s="1">
+        <f>E36*D36</f>
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37">
         <v>12</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="1">
         <f>60*3.8</f>
         <v>228</v>
       </c>
-      <c r="F36" s="13">
-        <f>E36*D36</f>
+      <c r="F37" s="1">
+        <f>E37*D37</f>
         <v>2736</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E37" s="11" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="15">
-        <f>F36+(52.59*3.8)</f>
-        <v>2935.8420000000001</v>
-      </c>
-      <c r="G37" s="12" t="s">
+      <c r="F38" s="13">
+        <f>F37+F36+(52.59*3.8)</f>
+        <v>3201.8420000000001</v>
+      </c>
+      <c r="G38" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
         <v>63</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
         <v>153</v>
       </c>
-      <c r="F39" s="1">
-        <f>E39*D39</f>
+      <c r="F40" s="1">
+        <f>E40*D40</f>
         <v>153</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E40" s="11" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="15">
-        <f>F39+194</f>
+      <c r="F41" s="13">
+        <f>F40+194</f>
         <v>347</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G41" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E41" s="11"/>
-      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E42" s="11"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E43" s="11"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
         <v>33</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G52" t="s">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G53" s="5" t="s">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G54" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>36</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>49</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
         <v>15</v>
       </c>
-      <c r="F56" s="1">
-        <f>E56*D56</f>
+      <c r="F57" s="1">
+        <f>E57*D57</f>
         <v>15</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G57" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G64" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
         <v>89</v>
       </c>
     </row>
